--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H2">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I2">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J2">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>9.079472484370335</v>
+        <v>11.79082266728</v>
       </c>
       <c r="R2">
-        <v>81.71525235933301</v>
+        <v>106.11740400552</v>
       </c>
       <c r="S2">
-        <v>0.007234100258306779</v>
+        <v>0.003708740860829192</v>
       </c>
       <c r="T2">
-        <v>0.007398531623115998</v>
+        <v>0.003743254510800424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H3">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I3">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J3">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>0.1991328015057778</v>
+        <v>0.3085352209315556</v>
       </c>
       <c r="R3">
-        <v>1.792195213552</v>
+        <v>2.776816988384</v>
       </c>
       <c r="S3">
-        <v>0.0001586597297684528</v>
+        <v>9.704812065821641E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001622660712586929</v>
+        <v>9.795125328259036E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H4">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I4">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J4">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>96.29528633644202</v>
+        <v>199.0587243088627</v>
       </c>
       <c r="R4">
-        <v>866.657577027978</v>
+        <v>1791.528518779764</v>
       </c>
       <c r="S4">
-        <v>0.0767235934641957</v>
+        <v>0.06261286810779584</v>
       </c>
       <c r="T4">
-        <v>0.07846752356412746</v>
+        <v>0.06319554527362085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H5">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I5">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J5">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>4.306058217385834</v>
+        <v>11.50108549614566</v>
       </c>
       <c r="R5">
-        <v>25.836349304315</v>
+        <v>69.00651297687399</v>
       </c>
       <c r="S5">
-        <v>0.003430866376466054</v>
+        <v>0.003617605567236073</v>
       </c>
       <c r="T5">
-        <v>0.002339233396885098</v>
+        <v>0.002434180739682012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H6">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I6">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J6">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>92.74131933421211</v>
+        <v>193.1327503684818</v>
       </c>
       <c r="R6">
-        <v>834.671874007909</v>
+        <v>1738.194753316336</v>
       </c>
       <c r="S6">
-        <v>0.07389195829452008</v>
+        <v>0.06074888437119966</v>
       </c>
       <c r="T6">
-        <v>0.07557152522294937</v>
+        <v>0.06131421525033303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H7">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I7">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J7">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>36.794699745422</v>
+        <v>39.79914375844</v>
       </c>
       <c r="R7">
-        <v>331.152297708798</v>
+        <v>358.19229382596</v>
       </c>
       <c r="S7">
-        <v>0.02931630085237679</v>
+        <v>0.01251861001120392</v>
       </c>
       <c r="T7">
-        <v>0.02998266144846871</v>
+        <v>0.01263510855889605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H8">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I8">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J8">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
-        <v>0.8069886938346666</v>
+        <v>1.041440275959111</v>
       </c>
       <c r="R8">
-        <v>7.262898244512</v>
+        <v>9.372962483632</v>
       </c>
       <c r="S8">
-        <v>0.0006429709576816752</v>
+        <v>0.0003275795264295839</v>
       </c>
       <c r="T8">
-        <v>0.0006575857111864924</v>
+        <v>0.0003306279909994177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H9">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I9">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J9">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>390.238106205852</v>
+        <v>671.9095866927913</v>
       </c>
       <c r="R9">
-        <v>3512.142955852668</v>
+        <v>6047.186280235122</v>
       </c>
       <c r="S9">
-        <v>0.3109235244409335</v>
+        <v>0.2113456040574368</v>
       </c>
       <c r="T9">
-        <v>0.3179908275815567</v>
+        <v>0.2133123923759299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H10">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I10">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J10">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>17.450366138315</v>
+        <v>38.82115505896283</v>
       </c>
       <c r="R10">
-        <v>104.70219682989</v>
+        <v>232.926930353777</v>
       </c>
       <c r="S10">
-        <v>0.01390363794879511</v>
+        <v>0.01221098884230571</v>
       </c>
       <c r="T10">
-        <v>0.009479778766995165</v>
+        <v>0.008216416438987873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H11">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I11">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J11">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N11">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O11">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P11">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q11">
-        <v>375.8356011068726</v>
+        <v>651.9068527515475</v>
       </c>
       <c r="R11">
-        <v>3382.520409961854</v>
+        <v>5867.161674763928</v>
       </c>
       <c r="S11">
-        <v>0.2994482800326106</v>
+        <v>0.205053849971265</v>
       </c>
       <c r="T11">
-        <v>0.3062547504459831</v>
+        <v>0.2069620870438276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H12">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I12">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J12">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N12">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O12">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P12">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q12">
-        <v>2.5728435705655</v>
+        <v>38.56417519695999</v>
       </c>
       <c r="R12">
-        <v>15.437061423393</v>
+        <v>347.0775767726399</v>
       </c>
       <c r="S12">
-        <v>0.002049921773588764</v>
+        <v>0.01213015718691453</v>
       </c>
       <c r="T12">
-        <v>0.00139767771390738</v>
+        <v>0.01224304078136216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H13">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I13">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J13">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P13">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q13">
-        <v>0.05642811836533333</v>
+        <v>1.009124354609778</v>
       </c>
       <c r="R13">
-        <v>0.338568710192</v>
+        <v>9.082119191487999</v>
       </c>
       <c r="S13">
-        <v>4.495929321280748E-05</v>
+        <v>0.0003174147244182528</v>
       </c>
       <c r="T13">
-        <v>3.06541464002101E-05</v>
+        <v>0.0003203685950458808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H14">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I14">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J14">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N14">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O14">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P14">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q14">
-        <v>27.287125849323</v>
+        <v>651.0602131294053</v>
       </c>
       <c r="R14">
-        <v>163.722755095938</v>
+        <v>5859.541918164648</v>
       </c>
       <c r="S14">
-        <v>0.02174110935352724</v>
+        <v>0.2047875439594081</v>
       </c>
       <c r="T14">
-        <v>0.01482352371224887</v>
+        <v>0.2066933027805038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H15">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I15">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J15">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N15">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O15">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P15">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q15">
-        <v>1.22020461190375</v>
+        <v>37.61653351461133</v>
       </c>
       <c r="R15">
-        <v>4.880818447615</v>
+        <v>225.6992010876679</v>
       </c>
       <c r="S15">
-        <v>0.0009722021310549963</v>
+        <v>0.01183208151162645</v>
       </c>
       <c r="T15">
-        <v>0.0004419112538816402</v>
+        <v>0.007961460803465548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H16">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I16">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J16">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N16">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O16">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P16">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q16">
-        <v>26.28004078271483</v>
+        <v>631.6781645906168</v>
       </c>
       <c r="R16">
-        <v>157.680244696289</v>
+        <v>5685.103481315551</v>
       </c>
       <c r="S16">
-        <v>0.02093871093742672</v>
+        <v>0.1986910231812729</v>
       </c>
       <c r="T16">
-        <v>0.01427643240451818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.082186</v>
-      </c>
-      <c r="I17">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J17">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>21.605737</v>
-      </c>
-      <c r="N17">
-        <v>64.817211</v>
-      </c>
-      <c r="O17">
-        <v>0.04481006619585007</v>
-      </c>
-      <c r="P17">
-        <v>0.04512976179082277</v>
-      </c>
-      <c r="Q17">
-        <v>7.793808700360668</v>
-      </c>
-      <c r="R17">
-        <v>70.14427830324601</v>
-      </c>
-      <c r="S17">
-        <v>0.006209743311577731</v>
-      </c>
-      <c r="T17">
-        <v>0.006350891005330685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H18">
-        <v>1.082186</v>
-      </c>
-      <c r="I18">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J18">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.4738613333333333</v>
-      </c>
-      <c r="N18">
-        <v>1.421584</v>
-      </c>
-      <c r="O18">
-        <v>0.0009827833095589584</v>
-      </c>
-      <c r="P18">
-        <v>0.0009897949371139249</v>
-      </c>
-      <c r="Q18">
-        <v>0.1709353669582222</v>
-      </c>
-      <c r="R18">
-        <v>1.538418302624</v>
-      </c>
-      <c r="S18">
-        <v>0.000136193328896023</v>
-      </c>
-      <c r="T18">
-        <v>0.0001392890082685294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.082186</v>
-      </c>
-      <c r="I19">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J19">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>229.146642</v>
-      </c>
-      <c r="N19">
-        <v>687.439926</v>
-      </c>
-      <c r="O19">
-        <v>0.4752476713280717</v>
-      </c>
-      <c r="P19">
-        <v>0.4786383065121521</v>
-      </c>
-      <c r="Q19">
-        <v>82.65976263980401</v>
-      </c>
-      <c r="R19">
-        <v>743.9378637582361</v>
-      </c>
-      <c r="S19">
-        <v>0.06585944406941531</v>
-      </c>
-      <c r="T19">
-        <v>0.06735643165421899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H20">
-        <v>1.082186</v>
-      </c>
-      <c r="I20">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J20">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.2468025</v>
-      </c>
-      <c r="N20">
-        <v>20.493605</v>
-      </c>
-      <c r="O20">
-        <v>0.02125175819370577</v>
-      </c>
-      <c r="P20">
-        <v>0.01426891866552565</v>
-      </c>
-      <c r="Q20">
-        <v>3.696315403421667</v>
-      </c>
-      <c r="R20">
-        <v>22.17789242053</v>
-      </c>
-      <c r="S20">
-        <v>0.002945051737389609</v>
-      </c>
-      <c r="T20">
-        <v>0.002007995247763745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.082186</v>
-      </c>
-      <c r="I21">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J21">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>220.6895343333333</v>
-      </c>
-      <c r="N21">
-        <v>662.0686029999999</v>
-      </c>
-      <c r="O21">
-        <v>0.4577077209728135</v>
-      </c>
-      <c r="P21">
-        <v>0.4609732180943856</v>
-      </c>
-      <c r="Q21">
-        <v>79.60904146735089</v>
-      </c>
-      <c r="R21">
-        <v>716.481373206158</v>
-      </c>
-      <c r="S21">
-        <v>0.06342877170825603</v>
-      </c>
-      <c r="T21">
-        <v>0.0648705100209349</v>
+        <v>0.2005400476032627</v>
       </c>
     </row>
   </sheetData>
